--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43011,6 +43011,41 @@
         <v>356400</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>114900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43046,6 +43046,41 @@
         <v>114900</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>201200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43081,6 +43081,41 @@
         <v>201200</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>1065800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43116,6 +43116,41 @@
         <v>1065800</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>3117300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43151,6 +43151,41 @@
         <v>3117300</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>2101600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43186,6 +43186,41 @@
         <v>2101600</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>1384200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43221,6 +43221,41 @@
         <v>1384200</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>1939200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43256,6 +43256,41 @@
         <v>1939200</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>27700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43291,6 +43291,41 @@
         <v>27700</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>365400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43326,6 +43326,41 @@
         <v>365400</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>464300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43361,6 +43361,41 @@
         <v>464300</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>355200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43396,6 +43396,41 @@
         <v>355200</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>84800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43431,6 +43431,76 @@
         <v>84800</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>258500</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>757200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43501,6 +43501,76 @@
         <v>757200</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>1756300</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>587100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43571,6 +43571,41 @@
         <v>587100</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>239800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43606,6 +43606,41 @@
         <v>239800</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>826900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43641,6 +43641,41 @@
         <v>826900</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>271200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43676,6 +43676,41 @@
         <v>271200</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1328300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43711,6 +43711,76 @@
         <v>1328300</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>327800</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>438400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43781,6 +43781,41 @@
         <v>438400</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>400500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43816,6 +43816,41 @@
         <v>400500</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>1358200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2260"/>
+  <dimension ref="A1:I2261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79516,6 +79516,41 @@
         <v>1358200</v>
       </c>
     </row>
+    <row r="2261">
+      <c r="A2261" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2261" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2261" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D2261" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E2261" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="F2261" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G2261" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H2261" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I2261" t="n">
+        <v>4583500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2261"/>
+  <dimension ref="A1:I2262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79551,6 +79551,41 @@
         <v>4583500</v>
       </c>
     </row>
+    <row r="2262">
+      <c r="A2262" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2262" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2262" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D2262" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E2262" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F2262" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G2262" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H2262" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I2262" t="n">
+        <v>2490700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2262"/>
+  <dimension ref="A1:I2263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79586,6 +79586,41 @@
         <v>2490700</v>
       </c>
     </row>
+    <row r="2263">
+      <c r="A2263" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2263" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2263" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D2263" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E2263" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F2263" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G2263" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H2263" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I2263" t="n">
+        <v>2196300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2263"/>
+  <dimension ref="A1:I2264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79621,6 +79621,41 @@
         <v>2196300</v>
       </c>
     </row>
+    <row r="2264">
+      <c r="A2264" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2264" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2264" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D2264" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E2264" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F2264" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G2264" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2264" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2264" t="n">
+        <v>1665600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2264"/>
+  <dimension ref="A1:I2265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79656,6 +79656,41 @@
         <v>1665600</v>
       </c>
     </row>
+    <row r="2265">
+      <c r="A2265" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2265" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2265" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D2265" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E2265" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F2265" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G2265" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2265" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="I2265" t="n">
+        <v>1154800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2265"/>
+  <dimension ref="A1:I2266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79691,6 +79691,41 @@
         <v>1154800</v>
       </c>
     </row>
+    <row r="2266">
+      <c r="A2266" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2266" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2266" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D2266" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E2266" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="F2266" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2266" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="H2266" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I2266" t="n">
+        <v>415400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2266"/>
+  <dimension ref="A1:I2267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79726,6 +79726,41 @@
         <v>415400</v>
       </c>
     </row>
+    <row r="2267">
+      <c r="A2267" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2267" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2267" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D2267" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E2267" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="F2267" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G2267" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="H2267" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="I2267" t="n">
+        <v>937000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2267"/>
+  <dimension ref="A1:I2268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79761,6 +79761,41 @@
         <v>937000</v>
       </c>
     </row>
+    <row r="2268">
+      <c r="A2268" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2268" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2268" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D2268" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E2268" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="F2268" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G2268" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="H2268" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I2268" t="n">
+        <v>350800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2268"/>
+  <dimension ref="A1:I2269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79796,6 +79796,41 @@
         <v>350800</v>
       </c>
     </row>
+    <row r="2269">
+      <c r="A2269" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2269" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2269" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D2269" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E2269" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F2269" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G2269" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H2269" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I2269" t="n">
+        <v>238600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2269"/>
+  <dimension ref="A1:I2270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79831,6 +79831,41 @@
         <v>238600</v>
       </c>
     </row>
+    <row r="2270">
+      <c r="A2270" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2270" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2270" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D2270" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E2270" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F2270" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="G2270" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H2270" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I2270" t="n">
+        <v>173400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2270"/>
+  <dimension ref="A1:I2271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79866,6 +79866,41 @@
         <v>173400</v>
       </c>
     </row>
+    <row r="2271">
+      <c r="A2271" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2271" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2271" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D2271" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E2271" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F2271" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G2271" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H2271" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I2271" t="n">
+        <v>78000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2271"/>
+  <dimension ref="A1:I2272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79901,6 +79901,41 @@
         <v>78000</v>
       </c>
     </row>
+    <row r="2272">
+      <c r="A2272" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2272" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2272" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D2272" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E2272" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="F2272" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G2272" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H2272" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I2272" t="n">
+        <v>507800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2272"/>
+  <dimension ref="A1:I2273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79936,6 +79936,41 @@
         <v>507800</v>
       </c>
     </row>
+    <row r="2273">
+      <c r="A2273" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2273" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2273" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D2273" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E2273" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="F2273" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="G2273" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H2273" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="I2273" t="n">
+        <v>561300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2273"/>
+  <dimension ref="A1:I2274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79971,6 +79971,41 @@
         <v>561300</v>
       </c>
     </row>
+    <row r="2274">
+      <c r="A2274" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2274" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2274" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D2274" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E2274" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F2274" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="G2274" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="H2274" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="I2274" t="n">
+        <v>359100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8524.xlsx
+++ b/data/8524.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2274"/>
+  <dimension ref="A1:I2275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80006,6 +80006,41 @@
         <v>359100</v>
       </c>
     </row>
+    <row r="2275">
+      <c r="A2275" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2275" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2275" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="D2275" t="inlineStr">
+        <is>
+          <t>TALIWRK</t>
+        </is>
+      </c>
+      <c r="E2275" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="F2275" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G2275" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H2275" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="I2275" t="n">
+        <v>319900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
